--- a/catAfterlife/Assets/Dialog/testDialog.xlsx
+++ b/catAfterlife/Assets/Dialog/testDialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13741\Documents\Game-3800\catAfterlife\Assets\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B243EE66-5FB3-42A6-8774-D4562322A5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE291D8-4CA0-43F5-83C7-FCD54029BAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,18 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Choice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,19 +63,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>End</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>End Of Choice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meowdy! ^w^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(A talking cat...?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Witch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What the... Who are you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My name is--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More importantly, how did you even get in here?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requests? For what?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anyway, I am afraid I am not really in the mood to fulfill requests today, so off you go.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well, the window was open, and you were busy sleeping, so... I figured I would let myself in.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Whoops, he is right. I remember wanting to let some fresh air in last night...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For my destiny-defying potion brews, of course. Is not that why you have come?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,8 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,185 +440,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="1" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="104.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
+      <c r="B12" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/catAfterlife/Assets/Dialog/testDialog.xlsx
+++ b/catAfterlife/Assets/Dialog/testDialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13741\Documents\Game-3800\catAfterlife\Assets\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE291D8-4CA0-43F5-83C7-FCD54029BAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0E61BC-1670-4977-9CA9-20DE8500E719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,9 @@
   <si>
     <t>For my destiny-defying potion brews, of course. Is not that why you have come?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -484,7 +487,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>

--- a/catAfterlife/Assets/Dialog/testDialog.xlsx
+++ b/catAfterlife/Assets/Dialog/testDialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13741\Documents\Game-3800\catAfterlife\Assets\Dialog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0E61BC-1670-4977-9CA9-20DE8500E719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AB6BDB-7587-460F-97E8-5445BBFE622B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,62 +67,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meowdy! ^w^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(A talking cat...?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Witch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>What the... Who are you?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>My name is--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>More importantly, how did you even get in here?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Requests? For what?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anyway, I am afraid I am not really in the mood to fulfill requests today, so off you go.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Well, the window was open, and you were busy sleeping, so... I figured I would let myself in.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Whoops, he is right. I remember wanting to let some fresh air in last night...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For my destiny-defying potion brews, of course. Is not that why you have come?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wandering is part of it, little one, but your path has always been there, waiting for you. You just need to see it</t>
+  </si>
+  <si>
+    <t>But what is the path? How do I find the answers I need?</t>
+  </si>
+  <si>
+    <t>You here have to help your friends move on to their final lives, yes, but there is more to it. To succeed, you must gather the ingredients that will shape the potion for every reincarnation. Each ingredient is a key to our next lives, and it is up to you to find them.</t>
+  </si>
+  <si>
+    <t>Gather ingredients… but where do I find them?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The world of limbo is vast, with many regions—each different from the other. Some places are warm and bright, others are cold and harsh. The ingredients you seek grow in these places, hidden or protected by the environment itself. But remember, not all will come freely. Some will be guarded, others locked behind puzzles that will test your wits.</t>
+  </si>
+  <si>
+    <t>Puzzles… and guarded ingredients? So I have to solve challenges to collect what I need?</t>
+  </si>
+  <si>
+    <t>Yes. In each region, you will encounter trials—puzzles that require you to think, to remember, and sometimes to ask for help. But you are not without power.</t>
+  </si>
+  <si>
+    <t>And once I possess the needed ingredients… I will brew the final potions...  The keys to reincarnating all of our friends, right?</t>
+  </si>
+  <si>
+    <t>Yes. But remember, brewing a potion is no simple task. Each ingredient must be chosen carefully, based on what you learn along the way. The potions must reflect the deepest wishes of the recipients—a loving home, a long life, and friends to share it with.... Or even more. And should you fail to choose the right ingredients…</t>
+  </si>
+  <si>
+    <t>…then I fail your expectations.</t>
+  </si>
+  <si>
+    <t>Yes but no. It is okay, we all trust you and love you. But do not fear failure, little one. The world of limbo is forgiving. If you stumble, you can always try again. The puzzles will remain, and the ingredients will wait. But only when you truly understand the hearts of your friends will you be able to brew the potion that grants them the perfect final endings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I understand now. I need to explore, solve these puzzles, gather the right ingredients, and brew potions along the way to help me. It is all part of my journey.</t>
+  </si>
+  <si>
+    <t>Exactly. Each step brings you closer—not just to helping her, but to understanding yourself. Now, go. The path is waiting for you.</t>
+  </si>
+  <si>
+    <t>I still do not know what I am supposed to do here. I feel like I am just wandering, searching without really understanding why.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +141,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,9 +169,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -487,10 +505,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -504,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -524,12 +542,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1">
@@ -544,12 +562,12 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1">
@@ -564,12 +582,12 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1">
@@ -584,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -604,13 +622,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -624,13 +642,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -649,8 +667,8 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="1">
         <v>9</v>
@@ -664,12 +682,12 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="1">
@@ -678,10 +696,90 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
-        <v>10</v>
+      <c r="B16" s="1">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
